--- a/Team-Data/2012-13/1-10-2012-13.xlsx
+++ b/Team-Data/2012-13/1-10-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -801,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX2" t="n">
         <v>17</v>
       </c>
       <c r="AY2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ2" t="n">
         <v>2</v>
@@ -816,7 +883,7 @@
         <v>26</v>
       </c>
       <c r="BB2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC2" t="n">
         <v>14</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-10-2012-13</t>
+          <t>2013-01-10</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-1</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
         <v>16</v>
@@ -938,7 +1005,7 @@
         <v>16</v>
       </c>
       <c r="AH3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI3" t="n">
         <v>15</v>
@@ -959,13 +1026,13 @@
         <v>24</v>
       </c>
       <c r="AO3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP3" t="n">
         <v>24</v>
       </c>
       <c r="AQ3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR3" t="n">
         <v>29</v>
@@ -995,7 +1062,7 @@
         <v>23</v>
       </c>
       <c r="BA3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB3" t="n">
         <v>21</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-10-2012-13</t>
+          <t>2013-01-10</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>1.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
         <v>11</v>
@@ -1153,7 +1220,7 @@
         <v>10</v>
       </c>
       <c r="AS4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT4" t="n">
         <v>15</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-10-2012-13</t>
+          <t>2013-01-10</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-7.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE5" t="n">
         <v>28</v>
@@ -1341,7 +1408,7 @@
         <v>17</v>
       </c>
       <c r="AU5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV5" t="n">
         <v>7</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-10-2012-13</t>
+          <t>2013-01-10</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1539,10 @@
         <v>1.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
         <v>8</v>
@@ -1493,7 +1560,7 @@
         <v>24</v>
       </c>
       <c r="AK6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL6" t="n">
         <v>30</v>
@@ -1508,7 +1575,7 @@
         <v>8</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ6" t="n">
         <v>3</v>
@@ -1517,7 +1584,7 @@
         <v>11</v>
       </c>
       <c r="AS6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT6" t="n">
         <v>9</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-10-2012-13</t>
+          <t>2013-01-10</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1754,7 @@
         <v>11</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP7" t="n">
         <v>16</v>
@@ -1708,7 +1775,7 @@
         <v>30</v>
       </c>
       <c r="AV7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW7" t="n">
         <v>11</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-10-2012-13</t>
+          <t>2013-01-10</t>
         </is>
       </c>
     </row>
@@ -1758,100 +1825,100 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="n">
         <v>23</v>
       </c>
       <c r="G8" t="n">
-        <v>0.378</v>
+        <v>0.361</v>
       </c>
       <c r="H8" t="n">
-        <v>49.2</v>
+        <v>49.1</v>
       </c>
       <c r="I8" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J8" t="n">
-        <v>83.90000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="L8" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M8" t="n">
         <v>19.9</v>
       </c>
       <c r="N8" t="n">
-        <v>0.351</v>
+        <v>0.354</v>
       </c>
       <c r="O8" t="n">
-        <v>17.1</v>
+        <v>16.7</v>
       </c>
       <c r="P8" t="n">
-        <v>21.6</v>
+        <v>21.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.791</v>
+        <v>0.788</v>
       </c>
       <c r="R8" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S8" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T8" t="n">
-        <v>41.7</v>
+        <v>41.4</v>
       </c>
       <c r="U8" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V8" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W8" t="n">
         <v>7.8</v>
       </c>
       <c r="X8" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.6</v>
+        <v>19.3</v>
       </c>
       <c r="AB8" t="n">
-        <v>98.90000000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC8" t="n">
-        <v>-4.3</v>
+        <v>-4.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
         <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH8" t="n">
         <v>1</v>
       </c>
       <c r="AI8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ8" t="n">
         <v>5</v>
@@ -1869,19 +1936,19 @@
         <v>15</v>
       </c>
       <c r="AO8" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AP8" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR8" t="n">
         <v>27</v>
       </c>
       <c r="AS8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT8" t="n">
         <v>20</v>
@@ -1890,28 +1957,28 @@
         <v>17</v>
       </c>
       <c r="AV8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AW8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX8" t="n">
         <v>14</v>
       </c>
       <c r="AY8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ8" t="n">
         <v>26</v>
       </c>
       <c r="BA8" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BB8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-10-2012-13</t>
+          <t>2013-01-10</t>
         </is>
       </c>
     </row>
@@ -2021,13 +2088,13 @@
         <v>2</v>
       </c>
       <c r="AE9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF9" t="n">
         <v>14</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
         <v>23</v>
@@ -2051,7 +2118,7 @@
         <v>27</v>
       </c>
       <c r="AO9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
         <v>6</v>
@@ -2072,7 +2139,7 @@
         <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW9" t="n">
         <v>13</v>
@@ -2090,7 +2157,7 @@
         <v>3</v>
       </c>
       <c r="BB9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC9" t="n">
         <v>8</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-10-2012-13</t>
+          <t>2013-01-10</t>
         </is>
       </c>
     </row>
@@ -2200,13 +2267,13 @@
         <v>-1.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG10" t="n">
         <v>23</v>
@@ -2233,7 +2300,7 @@
         <v>8</v>
       </c>
       <c r="AO10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP10" t="n">
         <v>10</v>
@@ -2245,13 +2312,13 @@
         <v>9</v>
       </c>
       <c r="AS10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT10" t="n">
         <v>6</v>
       </c>
       <c r="AU10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV10" t="n">
         <v>24</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-10-2012-13</t>
+          <t>2013-01-10</t>
         </is>
       </c>
     </row>
@@ -2382,13 +2449,13 @@
         <v>2</v>
       </c>
       <c r="AD11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
       </c>
       <c r="AF11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG11" t="n">
         <v>7</v>
@@ -2412,10 +2479,10 @@
         <v>12</v>
       </c>
       <c r="AN11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
         <v>17</v>
@@ -2451,7 +2518,7 @@
         <v>27</v>
       </c>
       <c r="BA11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB11" t="n">
         <v>9</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-10-2012-13</t>
+          <t>2013-01-10</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>2.8</v>
       </c>
       <c r="AD12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE12" t="n">
         <v>8</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>9</v>
       </c>
       <c r="AF12" t="n">
         <v>11</v>
@@ -2576,7 +2643,7 @@
         <v>10</v>
       </c>
       <c r="AH12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
         <v>4</v>
@@ -2606,7 +2673,7 @@
         <v>15</v>
       </c>
       <c r="AR12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS12" t="n">
         <v>5</v>
@@ -2630,10 +2697,10 @@
         <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-10-2012-13</t>
+          <t>2013-01-10</t>
         </is>
       </c>
     </row>
@@ -2668,61 +2735,61 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" t="n">
         <v>14</v>
       </c>
       <c r="G13" t="n">
-        <v>0.611</v>
+        <v>0.6</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>33.9</v>
+        <v>34</v>
       </c>
       <c r="J13" t="n">
         <v>80.8</v>
       </c>
       <c r="K13" t="n">
-        <v>0.42</v>
+        <v>0.421</v>
       </c>
       <c r="L13" t="n">
         <v>6.4</v>
       </c>
       <c r="M13" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.338</v>
+        <v>0.341</v>
       </c>
       <c r="O13" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P13" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.731</v>
+        <v>0.729</v>
       </c>
       <c r="R13" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S13" t="n">
         <v>33.3</v>
       </c>
       <c r="T13" t="n">
-        <v>46.3</v>
+        <v>46.2</v>
       </c>
       <c r="U13" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="V13" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W13" t="n">
         <v>6.5</v>
@@ -2737,19 +2804,19 @@
         <v>19.4</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB13" t="n">
-        <v>90.90000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AD13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE13" t="n">
         <v>8</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>7</v>
       </c>
       <c r="AF13" t="n">
         <v>8</v>
@@ -2758,7 +2825,7 @@
         <v>8</v>
       </c>
       <c r="AH13" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI13" t="n">
         <v>30</v>
@@ -2770,16 +2837,16 @@
         <v>28</v>
       </c>
       <c r="AL13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM13" t="n">
         <v>18</v>
       </c>
       <c r="AN13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP13" t="n">
         <v>11</v>
@@ -2791,16 +2858,16 @@
         <v>5</v>
       </c>
       <c r="AS13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
       </c>
       <c r="AU13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV13" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AW13" t="n">
         <v>27</v>
@@ -2809,7 +2876,7 @@
         <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ13" t="n">
         <v>13</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-10-2012-13</t>
+          <t>2013-01-10</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
         <v>1</v>
@@ -2961,7 +3028,7 @@
         <v>18</v>
       </c>
       <c r="AO14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP14" t="n">
         <v>8</v>
@@ -2994,13 +3061,13 @@
         <v>11</v>
       </c>
       <c r="AZ14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
       </c>
       <c r="BB14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-10-2012-13</t>
+          <t>2013-01-10</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>1.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
         <v>19</v>
@@ -3122,7 +3189,7 @@
         <v>19</v>
       </c>
       <c r="AH15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI15" t="n">
         <v>14</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-10-2012-13</t>
+          <t>2013-01-10</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>5.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
@@ -3304,7 +3371,7 @@
         <v>4</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
         <v>20</v>
@@ -3313,7 +3380,7 @@
         <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>
@@ -3322,13 +3389,13 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ16" t="n">
         <v>2</v>
@@ -3346,7 +3413,7 @@
         <v>20</v>
       </c>
       <c r="AV16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW16" t="n">
         <v>2</v>
@@ -3355,13 +3422,13 @@
         <v>13</v>
       </c>
       <c r="AY16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
         <v>17</v>
       </c>
       <c r="BA16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB16" t="n">
         <v>24</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-10-2012-13</t>
+          <t>2013-01-10</t>
         </is>
       </c>
     </row>
@@ -3396,94 +3463,94 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" t="n">
         <v>23</v>
       </c>
       <c r="F17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>0.676</v>
+        <v>0.697</v>
       </c>
       <c r="H17" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I17" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J17" t="n">
         <v>78</v>
       </c>
       <c r="K17" t="n">
-        <v>0.487</v>
+        <v>0.488</v>
       </c>
       <c r="L17" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="M17" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.392</v>
+        <v>0.394</v>
       </c>
       <c r="O17" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P17" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.765</v>
+        <v>0.767</v>
       </c>
       <c r="R17" t="n">
         <v>8</v>
       </c>
       <c r="S17" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="T17" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="U17" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V17" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W17" t="n">
         <v>8</v>
       </c>
       <c r="X17" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y17" t="n">
         <v>3.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="AB17" t="n">
-        <v>101.8</v>
+        <v>102.2</v>
       </c>
       <c r="AC17" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
       </c>
       <c r="AF17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH17" t="n">
         <v>13</v>
@@ -3507,19 +3574,19 @@
         <v>2</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AP17" t="n">
         <v>12</v>
       </c>
       <c r="AQ17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
       </c>
       <c r="AS17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AT17" t="n">
         <v>29</v>
@@ -3534,7 +3601,7 @@
         <v>14</v>
       </c>
       <c r="AX17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3543,10 +3610,10 @@
         <v>7</v>
       </c>
       <c r="BA17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC17" t="n">
         <v>6</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-10-2012-13</t>
+          <t>2013-01-10</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-0.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
@@ -3668,7 +3735,7 @@
         <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI18" t="n">
         <v>13</v>
@@ -3692,7 +3759,7 @@
         <v>23</v>
       </c>
       <c r="AP18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ18" t="n">
         <v>17</v>
@@ -3725,10 +3792,10 @@
         <v>10</v>
       </c>
       <c r="BA18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC18" t="n">
         <v>17</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-10-2012-13</t>
+          <t>2013-01-10</t>
         </is>
       </c>
     </row>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-10-2012-13</t>
+          <t>2013-01-10</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-5.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
         <v>27</v>
@@ -4074,7 +4141,7 @@
         <v>21</v>
       </c>
       <c r="AV20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW20" t="n">
         <v>28</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-10-2012-13</t>
+          <t>2013-01-10</t>
         </is>
       </c>
     </row>
@@ -4124,70 +4191,70 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" t="n">
         <v>23</v>
       </c>
       <c r="F21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21" t="n">
-        <v>0.657</v>
+        <v>0.676</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
       </c>
       <c r="I21" t="n">
-        <v>37.3</v>
+        <v>37.5</v>
       </c>
       <c r="J21" t="n">
-        <v>83.59999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.446</v>
+        <v>0.449</v>
       </c>
       <c r="L21" t="n">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="M21" t="n">
-        <v>29</v>
+        <v>29.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.386</v>
+        <v>0.39</v>
       </c>
       <c r="O21" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="P21" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="Q21" t="n">
         <v>0.75</v>
       </c>
       <c r="R21" t="n">
-        <v>10.7</v>
+        <v>10.5</v>
       </c>
       <c r="S21" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T21" t="n">
-        <v>40.3</v>
+        <v>40</v>
       </c>
       <c r="U21" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="V21" t="n">
         <v>11.1</v>
       </c>
       <c r="W21" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="X21" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Z21" t="n">
         <v>18.9</v>
@@ -4196,13 +4263,13 @@
         <v>19.2</v>
       </c>
       <c r="AB21" t="n">
-        <v>101.5</v>
+        <v>102.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AE21" t="n">
         <v>4</v>
@@ -4217,10 +4284,10 @@
         <v>28</v>
       </c>
       <c r="AI21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK21" t="n">
         <v>12</v>
@@ -4232,34 +4299,34 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO21" t="n">
         <v>24</v>
       </c>
       <c r="AP21" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AQ21" t="n">
         <v>16</v>
       </c>
       <c r="AR21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS21" t="n">
         <v>24</v>
       </c>
       <c r="AT21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX21" t="n">
         <v>29</v>
@@ -4274,7 +4341,7 @@
         <v>22</v>
       </c>
       <c r="BB21" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BC21" t="n">
         <v>5</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-10-2012-13</t>
+          <t>2013-01-10</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>9.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4411,7 +4478,7 @@
         <v>10</v>
       </c>
       <c r="AM22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-10-2012-13</t>
+          <t>2013-01-10</t>
         </is>
       </c>
     </row>
@@ -4566,13 +4633,13 @@
         <v>-3.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
         <v>25</v>
       </c>
       <c r="AF23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG23" t="n">
         <v>25</v>
@@ -4584,13 +4651,13 @@
         <v>8</v>
       </c>
       <c r="AJ23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK23" t="n">
         <v>9</v>
       </c>
       <c r="AL23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM23" t="n">
         <v>19</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-10-2012-13</t>
+          <t>2013-01-10</t>
         </is>
       </c>
     </row>
@@ -4766,10 +4833,10 @@
         <v>16</v>
       </c>
       <c r="AJ24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL24" t="n">
         <v>19</v>
@@ -4796,7 +4863,7 @@
         <v>18</v>
       </c>
       <c r="AT24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU24" t="n">
         <v>19</v>
@@ -4811,7 +4878,7 @@
         <v>16</v>
       </c>
       <c r="AY24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ24" t="n">
         <v>6</v>
@@ -4823,7 +4890,7 @@
         <v>27</v>
       </c>
       <c r="BC24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-10-2012-13</t>
+          <t>2013-01-10</t>
         </is>
       </c>
     </row>
@@ -4942,7 +5009,7 @@
         <v>26</v>
       </c>
       <c r="AH25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI25" t="n">
         <v>7</v>
@@ -4978,7 +5045,7 @@
         <v>28</v>
       </c>
       <c r="AT25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU25" t="n">
         <v>12</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-10-2012-13</t>
+          <t>2013-01-10</t>
         </is>
       </c>
     </row>
@@ -5034,43 +5101,43 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F26" t="n">
         <v>15</v>
       </c>
       <c r="G26" t="n">
-        <v>0.571</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="H26" t="n">
         <v>48.9</v>
       </c>
       <c r="I26" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="J26" t="n">
         <v>82.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.438</v>
+        <v>0.44</v>
       </c>
       <c r="L26" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="M26" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="N26" t="n">
-        <v>0.343</v>
+        <v>0.344</v>
       </c>
       <c r="O26" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="P26" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="Q26" t="n">
         <v>0.771</v>
@@ -5079,61 +5146,61 @@
         <v>11.9</v>
       </c>
       <c r="S26" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T26" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U26" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V26" t="n">
         <v>14.6</v>
       </c>
       <c r="W26" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X26" t="n">
         <v>4.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z26" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="AA26" t="n">
         <v>19</v>
       </c>
-      <c r="AA26" t="n">
-        <v>19.1</v>
-      </c>
       <c r="AB26" t="n">
-        <v>97.09999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>-1.8</v>
+        <v>-1.9</v>
       </c>
       <c r="AD26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE26" t="n">
         <v>13</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>11</v>
       </c>
       <c r="AF26" t="n">
         <v>11</v>
       </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AH26" t="n">
         <v>3</v>
       </c>
       <c r="AI26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ26" t="n">
         <v>13</v>
       </c>
       <c r="AK26" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AL26" t="n">
         <v>7</v>
@@ -5145,22 +5212,22 @@
         <v>23</v>
       </c>
       <c r="AO26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ26" t="n">
         <v>11</v>
       </c>
       <c r="AR26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS26" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AT26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU26" t="n">
         <v>22</v>
@@ -5169,7 +5236,7 @@
         <v>13</v>
       </c>
       <c r="AW26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX26" t="n">
         <v>21</v>
@@ -5178,7 +5245,7 @@
         <v>5</v>
       </c>
       <c r="AZ26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA26" t="n">
         <v>23</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-10-2012-13</t>
+          <t>2013-01-10</t>
         </is>
       </c>
     </row>
@@ -5216,106 +5283,106 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
       </c>
       <c r="F27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G27" t="n">
-        <v>0.361</v>
+        <v>0.371</v>
       </c>
       <c r="H27" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I27" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J27" t="n">
         <v>83.2</v>
       </c>
       <c r="K27" t="n">
-        <v>0.439</v>
+        <v>0.437</v>
       </c>
       <c r="L27" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M27" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="N27" t="n">
-        <v>0.35</v>
+        <v>0.353</v>
       </c>
       <c r="O27" t="n">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="P27" t="n">
-        <v>22.4</v>
+        <v>22.1</v>
       </c>
       <c r="Q27" t="n">
         <v>0.768</v>
       </c>
       <c r="R27" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="S27" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="T27" t="n">
         <v>40.6</v>
       </c>
       <c r="U27" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="V27" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W27" t="n">
         <v>8.1</v>
       </c>
       <c r="X27" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y27" t="n">
         <v>6.6</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="AA27" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>96.90000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="AC27" t="n">
         <v>-5.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH27" t="n">
         <v>22</v>
       </c>
-      <c r="AF27" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>16</v>
-      </c>
       <c r="AI27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ27" t="n">
         <v>11</v>
       </c>
       <c r="AK27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL27" t="n">
         <v>16</v>
@@ -5324,19 +5391,19 @@
         <v>15</v>
       </c>
       <c r="AN27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO27" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ27" t="n">
         <v>12</v>
       </c>
       <c r="AR27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS27" t="n">
         <v>30</v>
@@ -5348,13 +5415,13 @@
         <v>27</v>
       </c>
       <c r="AV27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW27" t="n">
         <v>12</v>
       </c>
       <c r="AX27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY27" t="n">
         <v>26</v>
@@ -5363,10 +5430,10 @@
         <v>24</v>
       </c>
       <c r="BA27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB27" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BC27" t="n">
         <v>28</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-10-2012-13</t>
+          <t>2013-01-10</t>
         </is>
       </c>
     </row>
@@ -5506,10 +5573,10 @@
         <v>6</v>
       </c>
       <c r="AN28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP28" t="n">
         <v>22</v>
@@ -5521,7 +5588,7 @@
         <v>28</v>
       </c>
       <c r="AS28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT28" t="n">
         <v>19</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-10-2012-13</t>
+          <t>2013-01-10</t>
         </is>
       </c>
     </row>
@@ -5658,19 +5725,19 @@
         <v>-2.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF29" t="n">
         <v>20</v>
       </c>
       <c r="AG29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI29" t="n">
         <v>22</v>
@@ -5688,10 +5755,10 @@
         <v>7</v>
       </c>
       <c r="AN29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP29" t="n">
         <v>13</v>
@@ -5703,7 +5770,7 @@
         <v>25</v>
       </c>
       <c r="AS29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT29" t="n">
         <v>28</v>
@@ -5718,7 +5785,7 @@
         <v>20</v>
       </c>
       <c r="AX29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY29" t="n">
         <v>17</v>
@@ -5727,10 +5794,10 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC29" t="n">
         <v>21</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-10-2012-13</t>
+          <t>2013-01-10</t>
         </is>
       </c>
     </row>
@@ -5843,7 +5910,7 @@
         <v>2</v>
       </c>
       <c r="AE30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF30" t="n">
         <v>18</v>
@@ -5852,7 +5919,7 @@
         <v>17</v>
       </c>
       <c r="AH30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI30" t="n">
         <v>17</v>
@@ -5879,7 +5946,7 @@
         <v>7</v>
       </c>
       <c r="AQ30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR30" t="n">
         <v>6</v>
@@ -5912,7 +5979,7 @@
         <v>8</v>
       </c>
       <c r="BB30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC30" t="n">
         <v>15</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-10-2012-13</t>
+          <t>2013-01-10</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-8</v>
       </c>
       <c r="AD31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
@@ -6040,7 +6107,7 @@
         <v>29</v>
       </c>
       <c r="AJ31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK31" t="n">
         <v>30</v>
@@ -6067,7 +6134,7 @@
         <v>17</v>
       </c>
       <c r="AS31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT31" t="n">
         <v>7</v>
@@ -6076,13 +6143,13 @@
         <v>23</v>
       </c>
       <c r="AV31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW31" t="n">
         <v>24</v>
       </c>
       <c r="AX31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY31" t="n">
         <v>15</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-10-2012-13</t>
+          <t>2013-01-10</t>
         </is>
       </c>
     </row>
